--- a/docs/基本設計/基本設計書.xlsx
+++ b/docs/基本設計/基本設計書.xlsx
@@ -18,11 +18,11 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">システム構成図!$A$1:$BE$65</definedName>
-    <definedName name="更新履歴分類" localSheetId="1">[2]更新履歴!$K$3:$K$7</definedName>
-    <definedName name="更新履歴分類">[3]テンプレートVersion!$K$4:$K$8</definedName>
-    <definedName name="製品">[1]選択項目!$A$23:$A$27</definedName>
-    <definedName name="汎用○×">[1]選択項目!$A$31:$A$32</definedName>
-    <definedName name="用語集種別">[1]選択項目!$A$52:$A$54</definedName>
+    <definedName name="更新履歴分類" localSheetId="1">[1]更新履歴!$K$3:$K$7</definedName>
+    <definedName name="更新履歴分類">[2]テンプレートVersion!$K$4:$K$8</definedName>
+    <definedName name="製品">[3]選択項目!$A$23:$A$27</definedName>
+    <definedName name="汎用○×">[3]選択項目!$A$31:$A$32</definedName>
+    <definedName name="用語集種別">[3]選択項目!$A$52:$A$54</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">&lt;Ver. </t>
     <phoneticPr fontId="1"/>
@@ -210,6 +210,63 @@
   <si>
     <t xml:space="preserve">RDS(AWS) </t>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>開発言語</t>
+    <rPh sb="0" eb="4">
+      <t>カイハツゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・フロントエンド：HTML、CSS、JavaScript</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・サーバーサイド：Java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FireBase SDK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FireBaseとのやりとり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記の図にある「チャットページ」で利用する技術要件を以下に示す</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ギジュツヨウケン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4835,7 +4892,7 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:prstDash val="sysDash"/>
+          <a:prstDash val="dash"/>
           <a:round/>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="arrow"/>
@@ -4853,23 +4910,23 @@
       <xdr:rowOff>125038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>161927</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>125602</xdr:rowOff>
+      <xdr:rowOff>129223</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="47" name="直線矢印コネクタ 175"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="50" idx="3"/>
-          <a:endCxn id="77" idx="1"/>
+          <a:endCxn id="4" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4673030" y="5382838"/>
-          <a:ext cx="2927922" cy="564"/>
+          <a:off x="4673030" y="5573338"/>
+          <a:ext cx="2070671" cy="4185"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4883,7 +4940,7 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:prstDash val="dash"/>
           <a:round/>
           <a:headEnd type="arrow" w="med" len="med"/>
           <a:tailEnd type="arrow"/>
@@ -5030,8 +5087,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>161927</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>28577</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
@@ -5057,7 +5114,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7600952" y="5076826"/>
+          <a:off x="7867652" y="5267326"/>
           <a:ext cx="609598" cy="613151"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5069,14 +5126,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>96369</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -5087,7 +5144,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7296151" y="5735169"/>
+          <a:off x="7591426" y="5925669"/>
           <a:ext cx="1181100" cy="275106"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5208,13 +5265,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>96369</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -5225,7 +5282,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3800475" y="5354169"/>
+          <a:off x="3762375" y="5925669"/>
           <a:ext cx="1295400" cy="170331"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5609,7 +5666,7 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:prstDash val="dash"/>
           <a:round/>
           <a:headEnd type="arrow" w="med" len="med"/>
           <a:tailEnd type="arrow"/>
@@ -5750,7 +5807,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0"/>
-            <a:t>チャットデータの</a:t>
+            <a:t>チャットテキストの</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0"/>
         </a:p>
@@ -5897,7 +5954,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0"/>
-            <a:t>チャットデータをキャッシュとして</a:t>
+            <a:t>チャットテキストをキャッシュとして</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0"/>
         </a:p>
@@ -5971,7 +6028,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
+      <xdr:colOff>47626</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
@@ -6013,7 +6070,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4124326" y="5762624"/>
+          <a:off x="4086226" y="6334124"/>
           <a:ext cx="653653" cy="647701"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6167,14 +6224,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>12503</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>174428</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
@@ -6188,7 +6245,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="4330602" y="5642073"/>
+          <a:off x="4292502" y="6213573"/>
           <a:ext cx="238124" cy="2978"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -6203,7 +6260,7 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:prstDash val="dash"/>
           <a:round/>
           <a:headEnd type="arrow" w="med" len="med"/>
           <a:tailEnd type="arrow"/>
@@ -6213,10 +6270,551 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>39958</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>79747</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="8572500"/>
+          <a:ext cx="544783" cy="575047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>29694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="TextBox 213"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="9287994"/>
+          <a:ext cx="1295400" cy="170331"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0"/>
+            <a:t>チャットページ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>153672</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>163196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6743701" y="5353050"/>
+          <a:ext cx="448946" cy="448946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>153672</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>125602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>28577</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>129223</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 175"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="77" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="7192647" y="5573902"/>
+          <a:ext cx="675005" cy="3621"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>96369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="TextBox 213"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400801" y="5925669"/>
+          <a:ext cx="1181100" cy="275106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0"/>
+            <a:t>標準</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0"/>
+            <a:t>WebAPI</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="表紙"/>
+      <sheetName val="更新履歴"/>
+      <sheetName val="はじめに"/>
+      <sheetName val="要求要件一覧表"/>
+      <sheetName val="はらづもり"/>
+      <sheetName val="要求要件一覧表（説明）"/>
+      <sheetName val="要件要件一覧表 (元)"/>
+      <sheetName val="参考_要件XXX-XXX-XXX"/>
+      <sheetName val="要求関連図"/>
+      <sheetName val="動作要件"/>
+      <sheetName val="Work用"/>
+      <sheetName val="要求要件一覧表Template"/>
+      <sheetName val="要求要件一覧表_保管"/>
+      <sheetName val="テンプレートVersion"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="K3" t="str">
+            <v>新規</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="K4" t="str">
+            <v>追加</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5" t="str">
+            <v>変更</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6" t="str">
+            <v>削除</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="K7" t="str">
+            <v>版上げ</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="表紙"/>
+      <sheetName val="更新履歴"/>
+      <sheetName val="テンプレートVersion"/>
+      <sheetName val="はじめに"/>
+      <sheetName val="システム構成図"/>
+      <sheetName val="アプリケーション全体図"/>
+      <sheetName val="アプリケーションアーキテクチャ設計書"/>
+      <sheetName val="各種規約"/>
+      <sheetName val="ネットワーク構成図"/>
+      <sheetName val="ハードウェア構成図"/>
+      <sheetName val="ソフトウェア構成図"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="4">
+          <cell r="K4" t="str">
+            <v>新規</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5" t="str">
+            <v>変更</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6" t="str">
+            <v>追加</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="K7" t="str">
+            <v>削除</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="K8" t="str">
+            <v>版上げ</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -6307,130 +6905,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="16"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="更新履歴"/>
-      <sheetName val="はじめに"/>
-      <sheetName val="要求要件一覧表"/>
-      <sheetName val="はらづもり"/>
-      <sheetName val="要求要件一覧表（説明）"/>
-      <sheetName val="要件要件一覧表 (元)"/>
-      <sheetName val="参考_要件XXX-XXX-XXX"/>
-      <sheetName val="要求関連図"/>
-      <sheetName val="動作要件"/>
-      <sheetName val="Work用"/>
-      <sheetName val="要求要件一覧表Template"/>
-      <sheetName val="要求要件一覧表_保管"/>
-      <sheetName val="テンプレートVersion"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="K3" t="str">
-            <v>新規</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="K4" t="str">
-            <v>追加</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5" t="str">
-            <v>変更</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6" t="str">
-            <v>削除</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="K7" t="str">
-            <v>版上げ</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="更新履歴"/>
-      <sheetName val="テンプレートVersion"/>
-      <sheetName val="はじめに"/>
-      <sheetName val="システム構成図"/>
-      <sheetName val="アプリケーション全体図"/>
-      <sheetName val="アプリケーションアーキテクチャ設計書"/>
-      <sheetName val="各種規約"/>
-      <sheetName val="ネットワーク構成図"/>
-      <sheetName val="ハードウェア構成図"/>
-      <sheetName val="ソフトウェア構成図"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="4">
-          <cell r="K4" t="str">
-            <v>新規</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5" t="str">
-            <v>変更</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6" t="str">
-            <v>追加</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="K7" t="str">
-            <v>削除</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="K8" t="str">
-            <v>版上げ</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6691,7 +7165,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9373,7 +9847,9 @@
     <row r="42" spans="2:57">
       <c r="B42" s="31"/>
       <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
+      <c r="D42" s="32" t="s">
+        <v>33</v>
+      </c>
       <c r="E42" s="32"/>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
@@ -9555,10 +10031,9 @@
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
       <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="32"/>
+      <c r="L45" s="27" t="s">
+        <v>27</v>
+      </c>
       <c r="P45" s="32"/>
       <c r="Q45" s="32"/>
       <c r="R45" s="32"/>
@@ -9613,10 +10088,9 @@
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
       <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
+      <c r="N46" s="27" t="s">
+        <v>28</v>
+      </c>
       <c r="P46" s="32"/>
       <c r="Q46" s="32"/>
       <c r="R46" s="32"/>
@@ -9671,7 +10145,9 @@
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
       <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
+      <c r="L47" s="32" t="s">
+        <v>25</v>
+      </c>
       <c r="M47" s="32"/>
       <c r="N47" s="32"/>
       <c r="O47" s="32"/>
@@ -9731,7 +10207,9 @@
       <c r="K48" s="32"/>
       <c r="L48" s="32"/>
       <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
+      <c r="N48" s="32" t="s">
+        <v>30</v>
+      </c>
       <c r="O48" s="32"/>
       <c r="P48" s="32"/>
       <c r="Q48" s="32"/>
@@ -9789,7 +10267,9 @@
       <c r="K49" s="32"/>
       <c r="L49" s="32"/>
       <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
+      <c r="N49" s="32" t="s">
+        <v>26</v>
+      </c>
       <c r="O49" s="32"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="32"/>
@@ -9845,7 +10325,9 @@
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
+      <c r="L50" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="M50" s="32"/>
       <c r="N50" s="32"/>
       <c r="O50" s="32"/>
@@ -9905,8 +10387,12 @@
       <c r="K51" s="32"/>
       <c r="L51" s="32"/>
       <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="32"/>
+      <c r="N51" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="O51" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="P51" s="32"/>
       <c r="Q51" s="32"/>
       <c r="R51" s="32"/>
